--- a/data/income_statement/2digits/size/13_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/13_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>13-Manufacture of textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>13-Manufacture of textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,884 +841,999 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>980078.96047</v>
+        <v>1141939.58622</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>960781.3339300001</v>
+        <v>1109670.14014</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1020884.35322</v>
+        <v>1157914.14051</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>958314.8583300001</v>
+        <v>1120549.14761</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>821836.2880899999</v>
+        <v>988713.21698</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>814603.8490299999</v>
+        <v>981382.51188</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>858109.72006</v>
+        <v>1044658.74886</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>885430.6793600001</v>
+        <v>1144544.28213</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1076232.34809</v>
+        <v>1350278.4627</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2965285.36223</v>
+        <v>3412659.40513</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3116854.37138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3752423.83465</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4066533.665</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>850069.11996</v>
+        <v>991486.3195</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>854032.24127</v>
+        <v>979290.11032</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>879277.1634200001</v>
+        <v>998824.44676</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>851890.18984</v>
+        <v>991745.55458</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>739718.41048</v>
+        <v>880348.3778699999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>724652.7207599999</v>
+        <v>856687.7518099999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>768646.0635899999</v>
+        <v>925547.6994400001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>800801.0406600001</v>
+        <v>1021984.3419</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>966999.7020999999</v>
+        <v>1204597.35322</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2580719.79034</v>
+        <v>2958694.44162</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2724643.0034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3271400.32829</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3577042.693</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>115612.0463</v>
+        <v>128556.31278</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>93955.75896000001</v>
+        <v>108466.39355</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>125710.42426</v>
+        <v>134104.77653</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>94962.40980000001</v>
+        <v>106575.01325</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>72348.03203</v>
+        <v>87647.02508000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>77110.41755000001</v>
+        <v>98765.71325999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>71197.42567</v>
+        <v>87455.34024999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>70958.32759999999</v>
+        <v>94776.94155</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>95679.11443</v>
+        <v>114503.70039</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>338789.4055399999</v>
+        <v>377652.4830599999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>336538.80349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>381370.00604</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>387636.299</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>14397.79421</v>
+        <v>21896.95394</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>12793.3337</v>
+        <v>21913.63627</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>15896.76554</v>
+        <v>24984.91722</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11462.25869</v>
+        <v>22228.57978</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>9769.845579999999</v>
+        <v>20717.81403</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>12840.71072</v>
+        <v>25929.04681</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18266.2308</v>
+        <v>31655.70917</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>13671.3111</v>
+        <v>27782.99868</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>13553.53156</v>
+        <v>31177.40909</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>45776.16635</v>
+        <v>76312.48045</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>55672.56449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>99653.50032000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>101854.673</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>11061.93295</v>
+        <v>14184.14786</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9144.25496</v>
+        <v>13249.52645</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>9085.562820000001</v>
+        <v>10973.00705</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9009.01527</v>
+        <v>11515.74328</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8327.34742</v>
+        <v>9664.284569999998</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7104.872609999999</v>
+        <v>8763.08238</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8564.123129999998</v>
+        <v>10176.96163</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7444.266070000001</v>
+        <v>10222.22856</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12880.30749</v>
+        <v>15456.04342</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>24511.39478</v>
+        <v>30777.88965</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>29584.39351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>39312.2055</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>86711.859</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9080.82907</v>
+        <v>11467.20426</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>7733.673120000001</v>
+        <v>9019.944080000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>7669.89015</v>
+        <v>9117.55732</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7407.11895</v>
+        <v>9026.424719999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6449.294269999999</v>
+        <v>7501.051639999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5430.333019999999</v>
+        <v>6843.64136</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7229.80667</v>
+        <v>8599.32826</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6337.346860000001</v>
+        <v>8832.43693</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10297.60751</v>
+        <v>12376.62099</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>18585.35979</v>
+        <v>23560.4409</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>24680.74994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>30961.7782</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>77066.47900000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>926.606</v>
+        <v>1118.20993</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>886.23779</v>
+        <v>3305.62739</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>773.70848</v>
+        <v>894.47174</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>920.4989499999999</v>
+        <v>1315.67785</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>617.64778</v>
+        <v>758.2051700000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>803.11683</v>
+        <v>880.11302</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>728.523</v>
+        <v>781.7747099999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>543.98218</v>
+        <v>627.78389</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>484.68932</v>
+        <v>860.1833099999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2095.70869</v>
+        <v>2384.87162</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1523.41142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3186.7943</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3793.63</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1054.49788</v>
+        <v>1598.73367</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>524.34405</v>
+        <v>923.9549800000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>641.9641899999999</v>
+        <v>960.97799</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>681.39737</v>
+        <v>1173.64071</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1260.40537</v>
+        <v>1405.02776</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>871.42276</v>
+        <v>1039.328</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>605.79346</v>
+        <v>795.85866</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>562.93703</v>
+        <v>762.0077399999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2098.01066</v>
+        <v>2219.23912</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3830.3263</v>
+        <v>4832.57713</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3380.23215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5163.633</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5851.75</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>969017.02752</v>
+        <v>1127755.43836</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>951637.07897</v>
+        <v>1096420.61369</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1011798.7904</v>
+        <v>1146941.13346</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>949305.84306</v>
+        <v>1109033.40433</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>813508.9406699999</v>
+        <v>979048.93241</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>807498.9764200001</v>
+        <v>972619.4295</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>849545.5969300001</v>
+        <v>1034481.78723</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>877986.4132899999</v>
+        <v>1134322.05357</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1063352.0406</v>
+        <v>1334822.41928</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2940773.96745</v>
+        <v>3381881.515480001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3087269.97787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3713111.62915</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3979821.806</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>812172.7979700001</v>
+        <v>949146.1769600001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>800573.0918399999</v>
+        <v>924789.6518</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>851261.11369</v>
+        <v>966384.59562</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>797094.3806499999</v>
+        <v>925392.87293</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>665581.66717</v>
+        <v>800079.52434</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>665595.60454</v>
+        <v>796879.26351</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>701910.4807599999</v>
+        <v>839710.56018</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>726000.5933600001</v>
+        <v>920917.1901600001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>900308.52035</v>
+        <v>1102718.47904</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2488416.33139</v>
+        <v>2847025.53278</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2612272.04743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3134864.22841</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3292793.55</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>339251.09967</v>
+        <v>409669.3835</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>316992.21821</v>
+        <v>381048.10259</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>336817.2571</v>
+        <v>385722.19767</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>320672.63945</v>
+        <v>384632.64111</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>312667.8799</v>
+        <v>378798.34049</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>317121.6497899999</v>
+        <v>383465.1369300001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>309105.615</v>
+        <v>386616.52264</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>346099.1895800001</v>
+        <v>447094.4620700001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>379384.48265</v>
+        <v>484742.16676</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1197587.53485</v>
+        <v>1381513.27791</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1261025.00886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1520239.42376</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1582079.574</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>376670.70402</v>
+        <v>428026.81179</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>372877.56737</v>
+        <v>418038.40121</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>402550.18021</v>
+        <v>449051.65572</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>372729.92808</v>
+        <v>422070.15371</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>259342.08291</v>
+        <v>310442.39182</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>251351.80475</v>
+        <v>299751.6760800001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>290249.5307</v>
+        <v>332222.96795</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>265733.90979</v>
+        <v>328126.77328</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>414276.6712999999</v>
+        <v>475206.68484</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>987032.93921</v>
+        <v>1125846.79442</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>969604.0623600001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1171904.8635</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1320709.57</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>94471.3371</v>
+        <v>107312.77622</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>108961.67039</v>
+        <v>117901.24181</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>107202.38495</v>
+        <v>122712.75904</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>101433.83268</v>
+        <v>114984.00325</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>92091.98672999999</v>
+        <v>108855.19374</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>95141.44408000002</v>
+        <v>109563.96533</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>98355.98346</v>
+        <v>115436.97185</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>111587.50892</v>
+        <v>140626.94749</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>103679.37085</v>
+        <v>138208.46328</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>292257.32778</v>
+        <v>323632.0591</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>368523.20681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>425937.05891</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>371504.291</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1779.65718</v>
+        <v>4137.20545</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1741.63587</v>
+        <v>7801.906190000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4691.291429999999</v>
+        <v>8897.983189999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2257.98044</v>
+        <v>3706.07486</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1479.71763</v>
+        <v>1983.59829</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1980.70592</v>
+        <v>4098.48517</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4199.3516</v>
+        <v>5434.09774</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2579.98507</v>
+        <v>5069.007320000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2967.99555</v>
+        <v>4561.16416</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11538.52955</v>
+        <v>16033.40135</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>13119.7694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16782.88224</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>18500.115</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>156844.22955</v>
+        <v>178609.2614</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>151063.98713</v>
+        <v>171630.96189</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>160537.67671</v>
+        <v>180556.53784</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>152211.46241</v>
+        <v>183640.5314</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>147927.2735</v>
+        <v>178969.40807</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>141903.37188</v>
+        <v>175740.16599</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>147635.11617</v>
+        <v>194771.22705</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>151985.81993</v>
+        <v>213404.86341</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>163043.52025</v>
+        <v>232103.94024</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>452357.63606</v>
+        <v>534855.9826999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>474997.9304400001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>578247.40074</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>687028.2560000001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>134921.93426</v>
+        <v>202958.17265</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>128341.47281</v>
+        <v>177679.31669</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>144527.56224</v>
+        <v>216750.08105</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>135339.06601</v>
+        <v>200937.14052</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>133900.27791</v>
+        <v>191234.43417</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>134030.0727</v>
+        <v>187408.36084</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>135427.14883</v>
+        <v>200247.60763</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>145312.27747</v>
+        <v>225857.86079</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>155318.22803</v>
+        <v>254842.18515</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>347502.88403</v>
+        <v>465299.95523</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>398590.0763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>549067.41453</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>577756.825</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>405.39041</v>
+        <v>534.93047</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>210.16436</v>
+        <v>266.4288</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1190.79026</v>
+        <v>1200.65672</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>234.5856</v>
+        <v>1314.63043</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>26.98173</v>
+        <v>1180.2382</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>90.89144</v>
+        <v>230.88534</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>73.77308000000001</v>
+        <v>368.60408</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>159.25157</v>
+        <v>276.99852</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>168.27046</v>
+        <v>169.71443</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1153.15877</v>
+        <v>1289.90472</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>210.88404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>209.75293</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>475.709</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>23905.64956</v>
+        <v>28975.10735</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>20585.70815</v>
+        <v>24432.7585</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>22273.46313</v>
+        <v>25926.03442</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>21742.08153</v>
+        <v>26319.22744</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>23576.16109</v>
+        <v>28113.46634</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>18463.38503</v>
+        <v>24036.29058</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21400.44669</v>
+        <v>27376.47975</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>25034.45217</v>
+        <v>33678.48215</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>22633.8254</v>
+        <v>31612.04067</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>60834.95365</v>
+        <v>71253.55504000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>70190.34907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>86294.58185999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>79246.90300000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>110610.89429</v>
+        <v>173448.13483</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>107545.6003</v>
+        <v>152980.12939</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>121063.30885</v>
+        <v>189623.38991</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>113362.39888</v>
+        <v>173303.28265</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>110297.13509</v>
+        <v>161940.72963</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>115475.79623</v>
+        <v>163141.18492</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>113952.92906</v>
+        <v>172502.5238</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>120118.57373</v>
+        <v>191902.38012</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>132516.13217</v>
+        <v>223060.43005</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>285514.77161</v>
+        <v>392756.49547</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>328188.84319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>462563.07974</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>498034.213</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>21922.29529</v>
+        <v>-24348.91125</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>22722.51432</v>
+        <v>-6048.354800000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>16010.11447</v>
+        <v>-36193.54321</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>16872.3964</v>
+        <v>-17296.60912</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>14026.99559</v>
+        <v>-12265.0261</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>7873.299180000001</v>
+        <v>-11668.19485</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12207.96734</v>
+        <v>-5476.380579999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6673.542459999999</v>
+        <v>-12452.99738</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7725.29222</v>
+        <v>-22738.24491</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>104854.75203</v>
+        <v>69556.02747</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>76407.85414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>29179.98621</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>109271.431</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11618.35945</v>
+        <v>74367.99135</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10713.54229</v>
+        <v>198335.71161</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>19623.12095</v>
+        <v>145448.38965</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8469.54708</v>
+        <v>196512.80052</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8182.26515</v>
+        <v>228657.39359</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5946.47412</v>
+        <v>216630.57061</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9345.99613</v>
+        <v>217477.29513</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9647.55206</v>
+        <v>169960.50676</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9076.13968</v>
+        <v>204332.77224</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>68438.07762000001</v>
+        <v>575276.79106</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>39826.39346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>385325.06744</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>680111.656</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>5.84507</v>
+        <v>438.7377</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>219.18924</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>94.39105000000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>68.33689</v>
+        <v>678.4656</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>122.15062</v>
+        <v>41359.62594000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6.000100000000001</v>
+        <v>7391.470569999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>56.20045</v>
+        <v>28139.60552</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1.60926</v>
+        <v>17009.05041</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>34.76836</v>
+        <v>9082.253349999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>67.50175</v>
+        <v>44831.65629</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>283.35151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>16626.25854</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>80651.251</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>914.14226</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1.6</v>
+        <v>71776.13956</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>5629.99742</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1826,223 +1842,253 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3.48499</v>
+        <v>19377.71031</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>91.6652</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0.67231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>6.059979999999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>997.1214900000001</v>
+        <v>15602.39609</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>973.21018</v>
+        <v>33317.13186</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>662.7993100000001</v>
+        <v>10210.39475</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>744.67296</v>
+        <v>16862.84573</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>813.54999</v>
+        <v>13423.86067</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1013.40177</v>
+        <v>10375.89653</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1001.91847</v>
+        <v>12059.73095</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>993.32219</v>
+        <v>8536.251910000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>693.0070800000001</v>
+        <v>15041.5981</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3960.15864</v>
+        <v>32219.71624</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4233.02543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>18147.94378</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18122.741</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>924.5463899999999</v>
+        <v>1536.07996</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>839.22345</v>
+        <v>839.7291300000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>892.9697600000001</v>
+        <v>1048.834</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>341.64012</v>
+        <v>342.1483</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>78.24225</v>
+        <v>271.11941</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>46.61764000000001</v>
+        <v>251.2179</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>426.59037</v>
+        <v>469.07588</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>950.24726</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1196.10031</v>
+        <v>1514.609</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>308.1321600000001</v>
+        <v>566.38602</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1482.55054</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1488.46825</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>914.999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>290.40542</v>
+        <v>487.15941</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>446.85534</v>
+        <v>3932.97682</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>567.8686499999999</v>
+        <v>49438.51696</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>280.46948</v>
+        <v>89736.33996000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>535.7496600000001</v>
+        <v>64556.84595</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>214.83734</v>
+        <v>39253.36999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5</v>
+        <v>47868.49788</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>14.78725</v>
+        <v>49837.805</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>22.44485</v>
+        <v>33478.80601</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>341.31694</v>
+        <v>48986.1059</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>345.75533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>48934.43205999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>70116.98</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>87.57126000000001</v>
+        <v>669.4010700000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>80.41799</v>
+        <v>1661.18391</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>25.56525999999999</v>
+        <v>1711.98215</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>81.30085000000001</v>
+        <v>1768.05686</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>127.53696</v>
+        <v>553.0889100000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>47.80416</v>
+        <v>269.50573</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>29.29833</v>
+        <v>2609.25015</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>22.33447</v>
+        <v>2120.95009</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>67.95253</v>
+        <v>2308.43979</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>359.208</v>
+        <v>5418.31941</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>253.28109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>60226.49141</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>12664.705</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>5525.453459999999</v>
+        <v>35599.75823</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4980.74476</v>
+        <v>62402.47992000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5860.3228</v>
+        <v>31374.08613</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2819.34719</v>
+        <v>19224.53957</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3637.48259</v>
+        <v>51586.76447</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2107.21699</v>
+        <v>40299.77897</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4957.77562</v>
+        <v>54425.36934</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4235.33404</v>
+        <v>43438.07464</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3342.10494</v>
+        <v>84882.03469</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>51276.7977</v>
+        <v>340507.89194</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>21623.06651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>174103.30917</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>424030.942</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>1094.94837</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>23.92263</v>
@@ -2051,22 +2097,22 @@
         <v>0.35885</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>2.0572</v>
+        <v>102.95008</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>11.47383</v>
+        <v>284.22333</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1.22133</v>
+        <v>433.89366</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0.13055</v>
+        <v>111.22882</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0.1761</v>
+        <v>192.14994</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>6.81041</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
@@ -2074,311 +2120,351 @@
       <c r="M33" s="48" t="n">
         <v>21.07335</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>15.98585</v>
+        <v>17.7254</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>23.84582</v>
+        <v>31.21225</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>294.92027</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>49.97265</v>
+        <v>84.94338</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>5.24954</v>
+        <v>23.83034</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>82.80928</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>1.4</v>
+        <v>59.00686</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>2.67564</v>
+        <v>61.81164</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>2.1996</v>
+        <v>196.50015</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1.8</v>
+        <v>1.91938</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>2.04426</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>39.587</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3771.43051</v>
+        <v>18007.64286</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3343.72212</v>
+        <v>24131.74629</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>11318.31605</v>
+        <v>51274.90549</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4081.74974</v>
+        <v>62082.51362000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2850.82971</v>
+        <v>56598.03457</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2509.37479</v>
+        <v>118272.62798</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2864.19735</v>
+        <v>52357.81942</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3427.06585</v>
+        <v>47814.16587</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3717.56201</v>
+        <v>57730.05553999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12123.16243</v>
+        <v>102744.79588</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11581.57313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>65768.98664</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>73218.451</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>18181.90798</v>
+        <v>58881.87239999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>8494.507720000001</v>
+        <v>73540.41803</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>11327.05595</v>
+        <v>71819.80455</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6607.70194</v>
+        <v>27239.89875</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6566.00522</v>
+        <v>113159.89613</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5661.18377</v>
+        <v>47642.10608</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6847.121520000001</v>
+        <v>71745.83524000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7187.9422</v>
+        <v>65922.05020999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>5137.4794</v>
+        <v>137740.07017</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>84086.57213</v>
+        <v>472507.38556</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>31180.54405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>225706.65647</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>559600.236</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>343.77053</v>
+        <v>452.87932</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>286.47772</v>
+        <v>320.79725</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>386.44372</v>
+        <v>808.05915</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>206.39339</v>
+        <v>220.67191</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>281.06369</v>
+        <v>295.35643</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>261.90241</v>
+        <v>302.42954</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>276.5724</v>
+        <v>287.30324</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>185.98119</v>
+        <v>290.02851</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>235.27667</v>
+        <v>295.12058</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>828.1567299999999</v>
+        <v>2113.51024</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>485.55543</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>553.98065</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2951.961</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2914.73447</v>
+        <v>4989.67911</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>999.3833500000001</v>
+        <v>7536.77636</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1709.57736</v>
+        <v>8955.846089999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1560.673</v>
+        <v>3653.78037</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1818.21368</v>
+        <v>5702.0022</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1831.7843</v>
+        <v>3980.96928</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>895.7696</v>
+        <v>12062.37273</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2685.02913</v>
+        <v>4758.18489</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>875.44074</v>
+        <v>4988.84138</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1981.69534</v>
+        <v>69472.51378000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2557.62918</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>22740.64497</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5678.739</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>207.35778</v>
+        <v>268.73529</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>15.12226</v>
+        <v>130.81101</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2.85389</v>
+        <v>62.44749</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>24.12085</v>
+        <v>981.5167099999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>17.32556</v>
+        <v>662.4373200000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>469.48604</v>
+        <v>833.2495000000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>5.54203</v>
+        <v>93.91405999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>69.01123999999999</v>
+        <v>12.66449</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1.75</v>
+        <v>514.3518</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.63375</v>
+        <v>0.66925</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>8.944559999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>20.00495</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2513.291</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5508.36688</v>
+        <v>35389.8404</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3975.05553</v>
+        <v>55559.92819000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4559.50532</v>
+        <v>40055.37951000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2523.80268</v>
+        <v>14100.41148</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2654.59658</v>
+        <v>49398.90747</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2247.00062</v>
+        <v>37026.15749000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4048.86165</v>
+        <v>52996.56767</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2756.7233</v>
+        <v>53812.10215</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3067.17177</v>
+        <v>91103.39933</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>75975.30231</v>
+        <v>343575.13894</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>17241.08273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>188540.5136</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>538921.723</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>2.51992</v>
+        <v>593.05037</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>72.42724000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>26.92574</v>
+        <v>150.27245</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0.05296</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>398.52717</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>363.92068</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>16.21965</v>
+        <v>76.43301</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0.8279</v>
+        <v>65.73202999999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>11.063</v>
+        <v>12.88418</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>21.07335</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>109.83542</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>37.186</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>12.95887</v>
@@ -2399,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>266.05618</v>
+        <v>267.00618</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>431.85434</v>
+        <v>497.469</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>11.01654</v>
+        <v>63.44809</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
@@ -2417,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>527.89662</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>22.85919</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9192.19953</v>
+        <v>17174.72904</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3218.46886</v>
+        <v>9919.67798</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4375.693740000001</v>
+        <v>21520.79368</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1860.80472</v>
+        <v>7785.99632</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1783.78917</v>
+        <v>56639.21745</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>851.0104</v>
+        <v>5135.37959</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1604.15618</v>
+        <v>6229.24452</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1490.36944</v>
+        <v>6983.338140000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>946.7772199999999</v>
+        <v>40297.57628000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5279.71065</v>
+        <v>57324.48</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10754.63754</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13718.81769</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9497.335999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10567.03147</v>
+        <v>47048.76166999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8388.046920000001</v>
+        <v>56009.80581999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8679.468919999999</v>
+        <v>53494.39714999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7431.14016</v>
+        <v>25378.6429</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7675.11974</v>
+        <v>63758.32208</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6383.61399</v>
+        <v>33861.43295</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6712.86384</v>
+        <v>78239.43693000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7331.22336</v>
+        <v>72784.06956999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8153.79925</v>
+        <v>61795.88608999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>31089.8765</v>
+        <v>449225.98611</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>33123.98018999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>165754.35346</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>191961.073</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>10182.21728</v>
+        <v>43452.88483</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7477.631810000001</v>
+        <v>25227.66853</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>7621.74009</v>
+        <v>27724.23183</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7193.98569</v>
+        <v>23125.47877</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7508.82484</v>
+        <v>18242.3645</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6208.23725</v>
+        <v>15306.85831</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6456.99755</v>
+        <v>18314.66993</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7117.51369</v>
+        <v>21197.20518</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7875.7683</v>
+        <v>34840.30262</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>30440.25</v>
+        <v>81012.17216</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>32030.78929</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>117397.9538</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>97005.00999999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>384.81419</v>
+        <v>3595.87684</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>910.41511</v>
+        <v>30782.13729</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1057.72883</v>
+        <v>25770.16532</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>237.15447</v>
+        <v>2253.16413</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>166.2949</v>
+        <v>45515.95757999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>175.37674</v>
+        <v>18554.57464</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>255.86629</v>
+        <v>59924.767</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>213.70967</v>
+        <v>51586.86439</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>278.03095</v>
+        <v>26955.58347</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>649.6265</v>
+        <v>368213.81395</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1093.1909</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>48356.39966</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>94956.06299999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4791.71529</v>
+        <v>-55911.55397</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>16553.50197</v>
+        <v>62737.13296</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>15626.71055</v>
+        <v>-16059.35526000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>11303.10138</v>
+        <v>126597.64975</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7968.13578</v>
+        <v>39474.14928000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1774.975540000001</v>
+        <v>123458.83673</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>7993.97811</v>
+        <v>62015.64238</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1801.928960000001</v>
+        <v>18801.3896</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3510.153249999999</v>
+        <v>-17941.42893000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>58116.38102</v>
+        <v>-276900.55314</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>51929.72336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>23044.04372</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>37821.778</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9211.149039999998</v>
+        <v>143908.6851</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>9690.819949999999</v>
+        <v>84189.39393999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>14602.36648</v>
+        <v>112277.80665</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8412.68894</v>
+        <v>123989.05132</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8212.93131</v>
+        <v>91992.52392000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9618.465779999999</v>
+        <v>72281.90444</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>9091.584949999999</v>
+        <v>205442.60814</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9046.363150000001</v>
+        <v>81008.89156</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9187.899730000001</v>
+        <v>90766.76604999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>29867.99792</v>
+        <v>79258.05278</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>26928.26082</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>67548.16712</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>174182.293</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>28.22448</v>
+        <v>546.5000699999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>21.20366</v>
+        <v>154.29273</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>185.80993</v>
+        <v>403.25099</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>501.32258</v>
+        <v>663.84474</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>77.8839</v>
+        <v>5691.62095</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>112.09337</v>
+        <v>353.46221</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>197.61006</v>
+        <v>233.52346</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>368.08261</v>
+        <v>2337.76349</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>42.56751</v>
+        <v>1563.26563</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>174.90791</v>
+        <v>206.17455</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>83.16755999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>610.6319299999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2688.292</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9182.924559999999</v>
+        <v>143362.18503</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>9669.616290000002</v>
+        <v>84035.10121000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>14416.55655</v>
+        <v>111874.55566</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7911.36636</v>
+        <v>123325.20658</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8135.04741</v>
+        <v>86300.90297</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9506.37241</v>
+        <v>71928.44222999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8893.974890000001</v>
+        <v>205209.08468</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8678.28054</v>
+        <v>78671.12806999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9145.332219999998</v>
+        <v>89203.50041999998</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>29693.09001</v>
+        <v>79051.87822999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>26845.09326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>66937.53519</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>171494.001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>16359.20371</v>
+        <v>42032.01245999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>13706.25679</v>
+        <v>46461.03748</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>98638.37467</v>
+        <v>157882.18748</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13782.91929</v>
+        <v>49724.33833999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10188.64147</v>
+        <v>78336.38852000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>35385.36503</v>
+        <v>67974.22225000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>9818.99027</v>
+        <v>198186.64415</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>47803.43325</v>
+        <v>100743.47567</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9207.168589999999</v>
+        <v>32384.34831</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>51345.72629999999</v>
+        <v>113009.76701</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>20398.13747</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>59819.74919</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>92786.484</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1793.53917</v>
+        <v>6442.661</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1094.35221</v>
+        <v>15815.42725</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>570.58802</v>
+        <v>9880.399790000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>507.3379</v>
+        <v>9148.603050000002</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>742.79956</v>
+        <v>6782.634410000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1579.92068</v>
+        <v>7307.063740000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1121.43839</v>
+        <v>6874.69309</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>641.80742</v>
+        <v>4109.31301</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>316.44916</v>
+        <v>5315.62341</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2066.55253</v>
+        <v>3692.3751</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1067.80864</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6849.437089999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7133.97</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>986.77841</v>
+        <v>2165.09312</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>947.6063200000001</v>
+        <v>1945.25216</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6913.885969999999</v>
+        <v>9200.198920000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>322.70101</v>
+        <v>872.33043</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1559.11394</v>
+        <v>3309.57069</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>241.881</v>
+        <v>472.35529</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1012.35947</v>
+        <v>4058.23506</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>430.03249</v>
+        <v>837.83691</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>266.73164</v>
+        <v>564.48278</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>249.18521</v>
+        <v>1690.00251</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>279.79571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1615.92044</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>35859.423</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>13578.88613</v>
+        <v>33424.25834</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11664.29826</v>
+        <v>28700.35806999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>91153.90068000001</v>
+        <v>138801.58877</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>12952.88038</v>
+        <v>39703.40486</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7886.727970000001</v>
+        <v>68244.18342</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>33563.56335</v>
+        <v>60194.80322000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7685.192410000001</v>
+        <v>187253.716</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>46731.59334000001</v>
+        <v>95796.32575</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8623.987789999999</v>
+        <v>26504.24212</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>49029.98856000001</v>
+        <v>107627.3894</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>19050.53312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>51354.39166</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>49793.091</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-2356.33938</v>
+        <v>45965.11867</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>12538.06513</v>
+        <v>100465.48942</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-68409.29764</v>
+        <v>-61663.73609000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5932.87103</v>
+        <v>200862.36273</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5992.42562</v>
+        <v>53130.28468</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-23991.92371</v>
+        <v>127766.51892</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>7266.572790000001</v>
+        <v>69271.60637000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-36955.14114</v>
+        <v>-933.1945099999998</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3490.88439</v>
+        <v>40440.98881</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>36638.65264</v>
+        <v>-310652.26737</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>58459.84671</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>30772.46165</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>119217.587</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6210.82116</v>
+        <v>11095.10131</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6732.29632</v>
+        <v>8230.232620000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6925.77778</v>
+        <v>10772.38243</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6587.977559999999</v>
+        <v>20483.83277</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5835.75953</v>
+        <v>19164.42332</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6388.77471</v>
+        <v>14176.20385</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7032.3364</v>
+        <v>15412.75138</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6582.19497</v>
+        <v>14762.085</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7454.0197</v>
+        <v>19362.07335</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>24056.80988</v>
+        <v>39792.26409999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>25858.34732</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>43593.48134000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>58145.646</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-8567.160539999999</v>
+        <v>34870.01736</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5805.76881</v>
+        <v>92235.25680000002</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-75335.07542000001</v>
+        <v>-72436.11851999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-655.1065299999998</v>
+        <v>180378.52996</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>156.6660899999999</v>
+        <v>33965.86136</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-30380.69842</v>
+        <v>113590.31507</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>234.2363899999997</v>
+        <v>53858.85498999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-43537.33611</v>
+        <v>-15695.27951</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-3963.135310000001</v>
+        <v>21078.91545999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>12581.84276</v>
+        <v>-350444.53147</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>32601.49939</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-12821.01969</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>61071.941</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4241</v>
+        <v>4878</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4071</v>
+        <v>4736</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3759</v>
+        <v>4380</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3385</v>
+        <v>4018</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3095</v>
+        <v>3743</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2810</v>
+        <v>3435</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2677</v>
+        <v>3344</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2632</v>
+        <v>3471</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2649</v>
+        <v>3530</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3398</v>
+        <v>4481</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4814</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>